--- a/Parte2/mathematicalProgramming/mathematicalProgramming.xlsx
+++ b/Parte2/mathematicalProgramming/mathematicalProgramming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miren\Desktop\Unige\Methods and Tools for Industrial Automation\MATLAB\Methods\Parte2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miren\Desktop\Unige\Methods and Tools for Industrial Automation\Methods\Parte2\mathematicalProgramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DDE832-CA0E-4ED4-9B62-5020B47A88E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA75458-F58D-4B53-B173-B82C1E59A3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5AF9F7C8-C9F4-49DE-B92B-8A6DDB58D3EA}"/>
   </bookViews>
@@ -19,43 +19,43 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Foglio1!$E$9:$I$13</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Foglio1!$E$13</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Foglio1!$H$11</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Foglio1!$I$13</definedName>
-    <definedName name="solver_lhs17" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Foglio1!$I$11</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Foglio1!$F$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Foglio1!$I$13</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Foglio1!$H$12</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Foglio1!$I$10</definedName>
     <definedName name="solver_lhs19" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Foglio1!$H$10</definedName>
-    <definedName name="solver_lhs21" localSheetId="0" hidden="1">Foglio1!$G$9</definedName>
-    <definedName name="solver_lhs22" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs23" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs24" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs25" localSheetId="0" hidden="1">Foglio1!$I$10</definedName>
-    <definedName name="solver_lhs26" localSheetId="0" hidden="1">Foglio1!$I$11</definedName>
-    <definedName name="solver_lhs27" localSheetId="0" hidden="1">Foglio1!$G$10</definedName>
-    <definedName name="solver_lhs28" localSheetId="0" hidden="1">Foglio1!$H$12</definedName>
-    <definedName name="solver_lhs29" localSheetId="0" hidden="1">Foglio1!$F$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Foglio1!$E$11</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
+    <definedName name="solver_lhs21" localSheetId="0" hidden="1">Foglio1!$G$11</definedName>
+    <definedName name="solver_lhs22" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs23" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs24" localSheetId="0" hidden="1">Foglio1!$G$10</definedName>
+    <definedName name="solver_lhs25" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
+    <definedName name="solver_lhs26" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs27" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
+    <definedName name="solver_lhs28" localSheetId="0" hidden="1">Foglio1!$E$9:$I$13</definedName>
+    <definedName name="solver_lhs29" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
     <definedName name="solver_lhs30" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs31" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs32" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs33" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs34" localSheetId="0" hidden="1">Foglio1!$E$9:$I$13</definedName>
-    <definedName name="solver_lhs35" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
-    <definedName name="solver_lhs36" localSheetId="0" hidden="1">Foglio1!$E$9</definedName>
-    <definedName name="solver_lhs37" localSheetId="0" hidden="1">Foglio1!$E$12</definedName>
-    <definedName name="solver_lhs38" localSheetId="0" hidden="1">Foglio1!$E$10</definedName>
+    <definedName name="solver_lhs31" localSheetId="0" hidden="1">Foglio1!$F$10</definedName>
+    <definedName name="solver_lhs32" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs33" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs34" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs35" localSheetId="0" hidden="1">Foglio1!$E$9</definedName>
+    <definedName name="solver_lhs36" localSheetId="0" hidden="1">Foglio1!$E$10</definedName>
+    <definedName name="solver_lhs37" localSheetId="0" hidden="1">Foglio1!$E$13</definedName>
+    <definedName name="solver_lhs38" localSheetId="0" hidden="1">Foglio1!$E$12</definedName>
     <definedName name="solver_lhs39" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
     <definedName name="solver_lhs40" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
     <definedName name="solver_lhs41" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs42" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
@@ -66,14 +66,14 @@
     <definedName name="solver_lhs47" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs48" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs49" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Foglio1!$G$9</definedName>
     <definedName name="solver_lhs50" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs51" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs52" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Foglio1!$E$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Foglio1!$F$9</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Foglio1!$G$11</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Foglio1!$H$11</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Foglio1!$H$10</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -82,38 +82,38 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">39</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Foglio1!$G$27</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Foglio1!$G$28</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel16" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel17" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel16" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel19" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel20" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel21" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel22" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel23" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel24" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel25" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel26" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel24" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel25" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel26" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel27" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel28" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel29" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel28" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel29" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel30" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel31" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel31" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel32" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel33" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel34" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel35" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel34" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel35" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel36" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel37" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel38" localSheetId="0" hidden="1">2</definedName>
@@ -129,48 +129,48 @@
     <definedName name="solver_rel47" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel48" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel49" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel50" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel51" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel52" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1-Foglio1!$I$9</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$G$3-1000*(1-Foglio1!$G$9)</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">1-Foglio1!$G$12</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$H$3-1000*(1-Foglio1!$H$9)</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$G$3-1000*(1-Foglio1!$G$13)</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$I$3-1000*(1-Foglio1!$I$10)</definedName>
-    <definedName name="solver_rhs15" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$I$3-1000*(1-Foglio1!$I$9)</definedName>
-    <definedName name="solver_rhs16" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs17" localSheetId="0" hidden="1">1-Foglio1!$H$13</definedName>
-    <definedName name="solver_rhs18" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1-Foglio1!$G$13</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$F$3-1000*(1-Foglio1!$F$12)</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$G$3-1000*(1-Foglio1!$G$10)</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$H$3-1000*(1-Foglio1!$H$10)</definedName>
+    <definedName name="solver_rhs17" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$H$3-1000*(1-Foglio1!$H$9)</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">1-Foglio1!$F$13</definedName>
     <definedName name="solver_rhs19" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$H$3-1000*(1-Foglio1!$H$11)</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
-    <definedName name="solver_rhs20" localSheetId="0" hidden="1">1-Foglio1!$F$12</definedName>
-    <definedName name="solver_rhs21" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs22" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$G$3-1000*(1-Foglio1!$G$10)</definedName>
-    <definedName name="solver_rhs23" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$H$3-1000*(1-Foglio1!$H$13)</definedName>
-    <definedName name="solver_rhs24" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$H$3-1000*(1-Foglio1!$H$10)</definedName>
-    <definedName name="solver_rhs25" localSheetId="0" hidden="1">1-Foglio1!$F$13</definedName>
-    <definedName name="solver_rhs26" localSheetId="0" hidden="1">1-Foglio1!$G$13</definedName>
-    <definedName name="solver_rhs27" localSheetId="0" hidden="1">1-Foglio1!$F$11</definedName>
-    <definedName name="solver_rhs28" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs29" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$I$3-1000*(1-Foglio1!$I$11)</definedName>
-    <definedName name="solver_rhs30" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$F$3-1000*(1-Foglio1!$F$9)</definedName>
-    <definedName name="solver_rhs31" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$F$3-1000*(1-Foglio1!$F$12)</definedName>
-    <definedName name="solver_rhs32" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$F$3-1000*(1-Foglio1!$F$13)</definedName>
-    <definedName name="solver_rhs33" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$F$3-1000*(1-Foglio1!$F$11)</definedName>
-    <definedName name="solver_rhs34" localSheetId="0" hidden="1">"binario"</definedName>
-    <definedName name="solver_rhs35" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$E$3-1000*(1-Foglio1!$E$13)</definedName>
-    <definedName name="solver_rhs36" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs37" localSheetId="0" hidden="1">1-Foglio1!$H$9</definedName>
-    <definedName name="solver_rhs38" localSheetId="0" hidden="1">1-Foglio1!$F$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1-Foglio1!$G$9</definedName>
+    <definedName name="solver_rhs20" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs21" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs22" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$I$3-1000*(1-Foglio1!$I$10)</definedName>
+    <definedName name="solver_rhs23" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$I$3-1000*(1-Foglio1!$I$9)</definedName>
+    <definedName name="solver_rhs24" localSheetId="0" hidden="1">1-Foglio1!$F$11</definedName>
+    <definedName name="solver_rhs25" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$G$3-1000*(1-Foglio1!$G$12)</definedName>
+    <definedName name="solver_rhs26" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$F$3-1000*(1-Foglio1!$F$11)</definedName>
+    <definedName name="solver_rhs27" localSheetId="0" hidden="1">1-Foglio1!$H$13</definedName>
+    <definedName name="solver_rhs28" localSheetId="0" hidden="1">"binario"</definedName>
+    <definedName name="solver_rhs29" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$F$3-1000*(1-Foglio1!$F$9)</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$G$3-1000*(1-Foglio1!$G$9)</definedName>
+    <definedName name="solver_rhs30" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$F$3-1000*(1-Foglio1!$F$13)</definedName>
+    <definedName name="solver_rhs31" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs32" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$E$3-1000*(1-Foglio1!$E$11)</definedName>
+    <definedName name="solver_rhs33" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$E$3-1000*(1-Foglio1!$E$13)</definedName>
+    <definedName name="solver_rhs34" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$E$3-1000*(1-Foglio1!$E$12)</definedName>
+    <definedName name="solver_rhs35" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs36" localSheetId="0" hidden="1">1-Foglio1!$F$9</definedName>
+    <definedName name="solver_rhs37" localSheetId="0" hidden="1">1-Foglio1!$I$9</definedName>
+    <definedName name="solver_rhs38" localSheetId="0" hidden="1">1-Foglio1!$H$9</definedName>
     <definedName name="solver_rhs39" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$E$3-1000*(1-Foglio1!$E$10)</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$E$3-1000*(1-Foglio1!$E$11)</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$G$3-1000*(1-Foglio1!$G$13)</definedName>
     <definedName name="solver_rhs40" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs41" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs42" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
@@ -181,14 +181,14 @@
     <definedName name="solver_rhs47" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs48" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs49" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$E$3-1000*(1-Foglio1!$E$12)</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs50" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs51" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs52" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">1-Foglio1!$G$9</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$G$3-1000*(1-Foglio1!$G$12)</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">1-Foglio1!$G$12</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">1-Foglio1!$F$12</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$H$3-1000*(1-Foglio1!$H$13)</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$I$3-1000*(1-Foglio1!$I$11)</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>J1</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Starting time</t>
   </si>
   <si>
-    <t>Sequenza ottima</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 --&gt; 1 --&gt; 2 --&gt; 3 --&gt; 5 </t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>Cost Function</t>
   </si>
   <si>
-    <t>Minimize total tardiness</t>
-  </si>
-  <si>
     <t>Contraints</t>
   </si>
   <si>
@@ -409,6 +403,163 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">ij </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">j </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;= C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - M * ( 1 - x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ij</t>
     </r>
     <r>
@@ -419,6 +570,70 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Minimize total weighted tardiness</t>
+  </si>
+  <si>
+    <r>
+      <t>Σ w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>∀ i, j with i ≠ j</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> + x</t>
     </r>
     <r>
@@ -440,198 +655,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ij </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">j </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;= C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + p</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - M * ( 1 - x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ij</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
+      <t xml:space="preserve"> = 1                </t>
+    </r>
+  </si>
+  <si>
+    <t>Optimal sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +681,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -713,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -724,6 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1053,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7164C1-8EB4-4D5E-85AB-E939FB995734}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1125,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>0</v>
@@ -1091,7 +1145,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
@@ -1114,7 +1168,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>6</v>
@@ -1157,15 +1211,15 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1174,7 +1228,7 @@
     </row>
     <row r="8" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1194,7 +1248,7 @@
     </row>
     <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1237,7 +1291,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1260,7 +1314,7 @@
     </row>
     <row r="12" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1283,7 +1337,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1348,7 +1402,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -1360,7 +1414,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1">
         <f>E16+E3</f>
@@ -1384,7 +1438,9 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1392,111 +1448,125 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="B21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <f>MAX(E19-E4,0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <f>MAX(F19-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <f>MAX(G19-G4,0)</f>
         <v>6</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <f>MAX(H19-H4,0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <f>MAX(I19-I4,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
     <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1">
-        <f>E22*E5</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <f>F22*F5</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <f>G22*G5</f>
-        <v>9</v>
-      </c>
-      <c r="H25" s="1">
-        <f>H22*H5</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <f>I22*I5</f>
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E23*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f>F23*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f>G23*G5</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="1">
+        <f>H23*H5</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>I23*I5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28">
+        <f>SUM(E26:I26)</f>
+        <v>17</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27">
-        <f>SUM(E25:I25)</f>
-        <v>17</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="6"/>
+      <c r="L28" s="6"/>
     </row>
   </sheetData>
   <scenarios current="0">

--- a/Parte2/mathematicalProgramming/mathematicalProgramming.xlsx
+++ b/Parte2/mathematicalProgramming/mathematicalProgramming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miren\Desktop\Unige\Methods and Tools for Industrial Automation\Methods\Parte2\mathematicalProgramming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/274eccc78034c9a0/Documenti/MATLAB/Progetto/Methods/Parte2/mathematicalProgramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA75458-F58D-4B53-B173-B82C1E59A3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EEA75458-F58D-4B53-B173-B82C1E59A3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD61301-B7C7-4410-9849-3DE0E363D25A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5AF9F7C8-C9F4-49DE-B92B-8A6DDB58D3EA}"/>
   </bookViews>
@@ -22,40 +22,40 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Foglio1!$I$11</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Foglio1!$F$9</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Foglio1!$I$13</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Foglio1!$H$12</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs17" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Foglio1!$I$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Foglio1!$E$11</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Foglio1!$I$10</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
     <definedName name="solver_lhs19" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Foglio1!$E$11</definedName>
-    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
-    <definedName name="solver_lhs21" localSheetId="0" hidden="1">Foglio1!$G$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs21" localSheetId="0" hidden="1">Foglio1!$F$9</definedName>
     <definedName name="solver_lhs22" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs23" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs24" localSheetId="0" hidden="1">Foglio1!$G$10</definedName>
-    <definedName name="solver_lhs25" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs26" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs27" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
-    <definedName name="solver_lhs28" localSheetId="0" hidden="1">Foglio1!$E$9:$I$13</definedName>
-    <definedName name="solver_lhs29" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
-    <definedName name="solver_lhs30" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
-    <definedName name="solver_lhs31" localSheetId="0" hidden="1">Foglio1!$F$10</definedName>
-    <definedName name="solver_lhs32" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
-    <definedName name="solver_lhs33" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
-    <definedName name="solver_lhs34" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
-    <definedName name="solver_lhs35" localSheetId="0" hidden="1">Foglio1!$E$9</definedName>
+    <definedName name="solver_lhs23" localSheetId="0" hidden="1">Foglio1!$I$13</definedName>
+    <definedName name="solver_lhs24" localSheetId="0" hidden="1">Foglio1!$H$12</definedName>
+    <definedName name="solver_lhs25" localSheetId="0" hidden="1">Foglio1!$G$11</definedName>
+    <definedName name="solver_lhs26" localSheetId="0" hidden="1">Foglio1!$I$11</definedName>
+    <definedName name="solver_lhs27" localSheetId="0" hidden="1">Foglio1!$G$10</definedName>
+    <definedName name="solver_lhs28" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs29" localSheetId="0" hidden="1">Foglio1!$H$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Foglio1!$E$9</definedName>
+    <definedName name="solver_lhs30" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
+    <definedName name="solver_lhs31" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs32" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
+    <definedName name="solver_lhs33" localSheetId="0" hidden="1">Foglio1!$E$9:$I$13</definedName>
+    <definedName name="solver_lhs34" localSheetId="0" hidden="1">Foglio1!$F$19</definedName>
+    <definedName name="solver_lhs35" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
     <definedName name="solver_lhs36" localSheetId="0" hidden="1">Foglio1!$E$10</definedName>
     <definedName name="solver_lhs37" localSheetId="0" hidden="1">Foglio1!$E$13</definedName>
     <definedName name="solver_lhs38" localSheetId="0" hidden="1">Foglio1!$E$12</definedName>
     <definedName name="solver_lhs39" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Foglio1!$H$11</definedName>
     <definedName name="solver_lhs40" localSheetId="0" hidden="1">Foglio1!$I$12</definedName>
     <definedName name="solver_lhs41" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs42" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
@@ -70,10 +70,10 @@
     <definedName name="solver_lhs50" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs51" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
     <definedName name="solver_lhs52" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Foglio1!$H$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Foglio1!$H$10</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Foglio1!$H$19</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Foglio1!$E$19</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Foglio1!$I$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Foglio1!$G$19</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Foglio1!$F$10</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -91,34 +91,34 @@
     <definedName name="solver_rel12" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel15" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel16" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel18" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel18" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel19" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel20" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel20" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel21" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel22" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel23" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel23" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel24" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel25" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel26" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel25" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel26" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel27" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel28" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel29" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel28" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel29" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel30" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel31" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel32" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel33" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel31" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel32" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel33" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel34" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel35" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel35" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel36" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel37" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel38" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel39" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel40" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel41" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel42" localSheetId="0" hidden="1">3</definedName>
@@ -133,44 +133,44 @@
     <definedName name="solver_rel50" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel51" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel52" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1-Foglio1!$G$13</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$F$3-1000*(1-Foglio1!$F$12)</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$G$3-1000*(1-Foglio1!$G$10)</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1-Foglio1!$G$9</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$H$3-1000*(1-Foglio1!$H$10)</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$I$3-1000*(1-Foglio1!$I$9)</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs15" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs16" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$H$3-1000*(1-Foglio1!$H$10)</definedName>
-    <definedName name="solver_rhs17" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$H$3-1000*(1-Foglio1!$H$9)</definedName>
-    <definedName name="solver_rhs18" localSheetId="0" hidden="1">1-Foglio1!$F$13</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$H$3-1000*(1-Foglio1!$H$9)</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">1-Foglio1!$F$13</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$G$3-1000*(1-Foglio1!$G$9)</definedName>
+    <definedName name="solver_rhs16" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$G$3-1000*(1-Foglio1!$G$10)</definedName>
+    <definedName name="solver_rhs17" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$F$3-1000*(1-Foglio1!$F$12)</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$G$3-1000*(1-Foglio1!$G$12)</definedName>
     <definedName name="solver_rhs19" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$H$3-1000*(1-Foglio1!$H$11)</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1-Foglio1!$G$9</definedName>
-    <definedName name="solver_rhs20" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs21" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs22" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$I$3-1000*(1-Foglio1!$I$10)</definedName>
-    <definedName name="solver_rhs23" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$I$3-1000*(1-Foglio1!$I$9)</definedName>
-    <definedName name="solver_rhs24" localSheetId="0" hidden="1">1-Foglio1!$F$11</definedName>
-    <definedName name="solver_rhs25" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$G$3-1000*(1-Foglio1!$G$12)</definedName>
-    <definedName name="solver_rhs26" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$F$3-1000*(1-Foglio1!$F$11)</definedName>
-    <definedName name="solver_rhs27" localSheetId="0" hidden="1">1-Foglio1!$H$13</definedName>
-    <definedName name="solver_rhs28" localSheetId="0" hidden="1">"binario"</definedName>
-    <definedName name="solver_rhs29" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$F$3-1000*(1-Foglio1!$F$9)</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$G$3-1000*(1-Foglio1!$G$9)</definedName>
-    <definedName name="solver_rhs30" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$F$3-1000*(1-Foglio1!$F$13)</definedName>
-    <definedName name="solver_rhs31" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs32" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$E$3-1000*(1-Foglio1!$E$11)</definedName>
-    <definedName name="solver_rhs33" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$E$3-1000*(1-Foglio1!$E$13)</definedName>
-    <definedName name="solver_rhs34" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$E$3-1000*(1-Foglio1!$E$12)</definedName>
-    <definedName name="solver_rhs35" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$E$3-1000*(1-Foglio1!$E$13)</definedName>
+    <definedName name="solver_rhs20" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$I$3-1000*(1-Foglio1!$I$10)</definedName>
+    <definedName name="solver_rhs21" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs22" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
+    <definedName name="solver_rhs23" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs24" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs25" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs26" localSheetId="0" hidden="1">1-Foglio1!$G$13</definedName>
+    <definedName name="solver_rhs27" localSheetId="0" hidden="1">1-Foglio1!$F$11</definedName>
+    <definedName name="solver_rhs28" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$F$3-1000*(1-Foglio1!$F$11)</definedName>
+    <definedName name="solver_rhs29" localSheetId="0" hidden="1">1-Foglio1!$F$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs30" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$H$3-1000*(1-Foglio1!$H$13)</definedName>
+    <definedName name="solver_rhs31" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$F$3-1000*(1-Foglio1!$F$13)</definedName>
+    <definedName name="solver_rhs32" localSheetId="0" hidden="1">1-Foglio1!$H$13</definedName>
+    <definedName name="solver_rhs33" localSheetId="0" hidden="1">"binario"</definedName>
+    <definedName name="solver_rhs34" localSheetId="0" hidden="1">Foglio1!$E$19+Foglio1!$F$3-1000*(1-Foglio1!$F$9)</definedName>
+    <definedName name="solver_rhs35" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$E$3-1000*(1-Foglio1!$E$12)</definedName>
     <definedName name="solver_rhs36" localSheetId="0" hidden="1">1-Foglio1!$F$9</definedName>
     <definedName name="solver_rhs37" localSheetId="0" hidden="1">1-Foglio1!$I$9</definedName>
     <definedName name="solver_rhs38" localSheetId="0" hidden="1">1-Foglio1!$H$9</definedName>
     <definedName name="solver_rhs39" localSheetId="0" hidden="1">Foglio1!$F$19+Foglio1!$E$3-1000*(1-Foglio1!$E$10)</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$G$3-1000*(1-Foglio1!$G$13)</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">1-Foglio1!$G$12</definedName>
     <definedName name="solver_rhs40" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs41" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs42" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
@@ -185,10 +185,10 @@
     <definedName name="solver_rhs50" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs51" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
     <definedName name="solver_rhs52" localSheetId="0" hidden="1">Foglio1!$H$19+Foglio1!$I$3-1000*(1-Foglio1!$I$12)</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">1-Foglio1!$G$12</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">1-Foglio1!$F$12</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$H$3-1000*(1-Foglio1!$H$13)</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$I$3-1000*(1-Foglio1!$I$11)</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$E$3-1000*(1-Foglio1!$E$11)</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Foglio1!$G$19+Foglio1!$I$3-1000*(1-Foglio1!$I$11)</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Foglio1!$I$19+Foglio1!$G$3-1000*(1-Foglio1!$G$13)</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -200,19 +200,10 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -485,6 +476,94 @@
     </r>
   </si>
   <si>
+    <t>Minimize total weighted tardiness</t>
+  </si>
+  <si>
+    <r>
+      <t>Σ w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>∀ i, j with i ≠ j</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1                </t>
+    </r>
+  </si>
+  <si>
+    <t>Optimal sequence</t>
+  </si>
+  <si>
     <r>
       <t>C</t>
     </r>
@@ -539,7 +618,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i</t>
+      <t>j</t>
     </r>
     <r>
       <rPr>
@@ -572,94 +651,6 @@
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
-  </si>
-  <si>
-    <t>Minimize total weighted tardiness</t>
-  </si>
-  <si>
-    <r>
-      <t>Σ w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <t>∀ i, j with i ≠ j</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ij</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ji</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1                </t>
-    </r>
-  </si>
-  <si>
-    <t>Optimal sequence</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7164C1-8EB4-4D5E-85AB-E939FB995734}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,7 +1405,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <f>E16+E3</f>
@@ -1439,7 +1430,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1469,10 +1460,10 @@
     </row>
     <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <f>MAX(E19-E4,0)</f>
@@ -1497,10 +1488,10 @@
     </row>
     <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1550,7 +1541,7 @@
         <v>29</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="6"/>
     </row>
